--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF5D30D-E8AD-4CA1-8D0C-E56896EA4654}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D08A8-F46B-4DA8-BA59-378092F9F482}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="732" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <sheet name="Pixels" sheetId="22" r:id="rId6"/>
     <sheet name="Channel" sheetId="23" r:id="rId7"/>
     <sheet name="Binary_Data" sheetId="25" r:id="rId8"/>
-    <sheet name="Unit" sheetId="26" r:id="rId9"/>
-    <sheet name="size" sheetId="27" r:id="rId10"/>
-    <sheet name="waveLength" sheetId="28" r:id="rId11"/>
-    <sheet name="time" sheetId="29" r:id="rId12"/>
+    <sheet name="size" sheetId="27" r:id="rId9"/>
+    <sheet name="waveLength" sheetId="28" r:id="rId10"/>
+    <sheet name="time" sheetId="29" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t/>
   </si>
@@ -251,9 +250,6 @@
     <t>:length</t>
   </si>
   <si>
-    <t>xsd:long</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -529,18 +525,6 @@
   </si>
   <si>
     <t>contrastMethod:dic</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -551,59 +535,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000117</t>
   </si>
   <si>
@@ -719,10 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>contrastMethod</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -811,19 +738,44 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[time:120.1302s]</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitTime:s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,13 +804,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -892,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,9 +854,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
@@ -1238,18 +1180,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1297,108 +1239,116 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1409,232 +1359,119 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626BDC80-9737-45FB-9F37-873C496E8246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10808A92-6352-4797-8630-428187AE9553}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6">
-        <v>103.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7">
-        <v>127.24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10808A92-6352-4797-8630-428187AE9553}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C5">
         <v>523</v>
       </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C6">
         <v>578</v>
       </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>488</v>
       </c>
-      <c r="D7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <v>561</v>
       </c>
-      <c r="D8" t="s">
-        <v>178</v>
+      <c r="D8" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1643,88 +1480,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4620A0D5-6589-4A92-94E5-740B3F9BDEE0}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>120.1302</v>
       </c>
-      <c r="D5" t="s">
-        <v>216</v>
+      <c r="D5" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1740,20 +1575,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -1770,19 +1605,19 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1797,13 +1632,13 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -1812,19 +1647,19 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1667,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
@@ -1841,10 +1676,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -1853,24 +1688,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1892,17 +1727,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1745,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>31</v>
@@ -1922,7 +1757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1932,13 +1767,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -1950,7 +1785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1793,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -1970,15 +1805,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1999,17 +1834,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +1852,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -2026,7 +1861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2035,13 +1870,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -2050,7 +1885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2058,7 +1893,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -2067,15 +1902,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2093,19 +1928,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +1948,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2128,7 +1963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2143,13 +1978,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -2164,7 +1999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2007,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -2187,24 +2022,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2219,22 +2054,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2242,10 +2077,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>59</v>
@@ -2278,10 +2113,10 @@
         <v>57</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2300,72 +2135,72 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>27</v>
@@ -2383,33 +2218,33 @@
         <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -2427,29 +2262,29 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2465,23 +2300,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2489,34 +2324,34 @@
         <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2533,40 +2368,40 @@
       <c r="J2" s="4"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2574,115 +2409,115 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2698,16 +2533,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2721,7 +2556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +2564,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2749,15 +2584,15 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2773,104 +2608,112 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D667E2-DFEF-4E28-85B9-DE17C8867021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626BDC80-9737-45FB-9F37-873C496E8246}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6">
+        <v>103.5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E5" t="s">
-        <v>162</v>
+      <c r="C7">
+        <v>127.24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D08A8-F46B-4DA8-BA59-378092F9F482}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368CA13-9863-488E-8101-83FA2590961B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="222">
   <si>
     <t/>
   </si>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -304,22 +300,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/PixelType#</t>
   </si>
   <si>
@@ -401,10 +381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>row naming conversion</t>
   </si>
   <si>
@@ -417,10 +393,6 @@
     <t>:columnNamingConvention</t>
   </si>
   <si>
-    <t>xsd:string</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>rows</t>
   </si>
   <si>
@@ -431,10 +403,6 @@
   </si>
   <si>
     <t>:columns</t>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>"Series 1"@en</t>
@@ -706,12 +674,6 @@
     <t>Well:1</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
     <t>Plate:1</t>
   </si>
   <si>
@@ -769,6 +731,98 @@
   </si>
   <si>
     <t>unitTime:s</t>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/well/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/wellSample/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/hcs/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namingConvention:number</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namingConvention:letter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>namingConvention</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/NamingConvention#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:NamingConvention</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1180,13 +1234,13 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -1257,98 +1311,146 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1381,13 +1483,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1395,13 +1497,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1410,10 +1512,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1421,57 +1523,57 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>523</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>578</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C7">
         <v>488</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C8">
         <v>561</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1502,13 +1604,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1516,13 +1618,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1531,10 +1633,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1542,24 +1644,24 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C5">
         <v>120.1302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1580,10 +1682,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1605,16 +1706,16 @@
         <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1647,16 +1748,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -1676,10 +1777,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -1693,19 +1794,19 @@
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1730,9 +1831,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -1807,13 +1908,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1837,7 +1938,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -1904,10 +2005,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>81</v>
@@ -2027,19 +2128,19 @@
         <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2164,8 @@
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
@@ -2080,7 +2181,7 @@
         <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>59</v>
@@ -2113,7 +2214,7 @@
         <v>57</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -2144,40 +2245,40 @@
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -2185,22 +2286,22 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>27</v>
@@ -2218,33 +2319,33 @@
         <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -2262,29 +2363,29 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2404,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -2330,25 +2431,25 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -2380,25 +2481,25 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -2415,109 +2516,109 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2637,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -2584,7 +2685,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>64</v>
@@ -2592,7 +2693,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2629,13 +2730,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2643,13 +2744,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2658,10 +2759,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2669,46 +2770,46 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>0.20699999999999999</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>103.5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>127.24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/hcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368CA13-9863-488E-8101-83FA2590961B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0FFED-D39D-4F67-8704-963580D3D94D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="732" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="222">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -106,15 +103,9 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Plate</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:Well</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -139,18 +127,6 @@
     <t>column</t>
   </si>
   <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
@@ -160,15 +136,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
-    <t>:index</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -181,15 +148,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -226,18 +184,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -247,9 +196,6 @@
     <t>length</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -309,66 +255,6 @@
     <t>dimensionOrder:xyczt</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/hcs/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -384,27 +270,15 @@
     <t>row naming conversion</t>
   </si>
   <si>
-    <t>:rowNamingConvention</t>
-  </si>
-  <si>
     <t>column naming convention</t>
   </si>
   <si>
-    <t>:columnNamingConvention</t>
-  </si>
-  <si>
     <t>rows</t>
   </si>
   <si>
-    <t>:rows</t>
-  </si>
-  <si>
     <t>columns</t>
   </si>
   <si>
-    <t>:columns</t>
-  </si>
-  <si>
     <t>"Series 1"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -424,44 +298,22 @@
     <t>emission wavelength</t>
   </si>
   <si>
-    <t>:emissionWavelength</t>
-  </si>
-  <si>
     <t>illumination type</t>
   </si>
   <si>
-    <t>:illuminationType</t>
-  </si>
-  <si>
-    <t>:IlluminationType</t>
-  </si>
-  <si>
     <t>samples per pixel</t>
   </si>
   <si>
-    <t>:samplesPerPixel</t>
-  </si>
-  <si>
     <t>pinhole size</t>
   </si>
   <si>
-    <t>:pinholeSize</t>
-  </si>
-  <si>
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
     <t>excitation wavelength</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:excitationWavelength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"CH1"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -484,12 +336,6 @@
   <si>
     <t>contrast method</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:contrastMethod</t>
-  </si>
-  <si>
-    <t>:ContrastMethod</t>
   </si>
   <si>
     <t>contrastMethod:dic</t>
@@ -545,10 +391,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0001242</t>
   </si>
   <si>
@@ -649,10 +491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel:0:0</t>
   </si>
   <si>
@@ -675,10 +513,6 @@
   </si>
   <si>
     <t>Plate:1</t>
-  </si>
-  <si>
-    <t>:timeInclrement</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>time increment</t>
@@ -821,7 +655,203 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:NamingConvention</t>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:rowNamingConvention</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:NamingConvention</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:columnNamingConvention</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:rows</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:columns</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:timeInclrement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:illuminationType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:IlluminationType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:samplesPerPixel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pinholeSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:contrastMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ContrastMethod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1247,210 +1277,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1480,100 +1510,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>523</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>578</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>488</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>561</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1601,67 +1631,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>120.1302</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1684,48 +1714,49 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
@@ -1735,78 +1766,78 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1840,27 +1871,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1870,51 +1901,51 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1947,24 +1978,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1973,45 +2004,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2031,116 +2062,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2158,68 +2189,68 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2238,114 +2269,114 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -2363,29 +2394,29 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2406,60 +2437,60 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2471,154 +2502,154 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2639,27 +2670,27 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2667,33 +2698,33 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -2705,6 +2736,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2727,89 +2759,89 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>0.20699999999999999</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>103.5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>127.24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
